--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_36ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_36ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -1677,28 +1677,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>143.1946248887639</v>
+        <v>174.3528261564854</v>
       </c>
       <c r="AB2" t="n">
-        <v>195.9252030737171</v>
+        <v>238.5572286510177</v>
       </c>
       <c r="AC2" t="n">
-        <v>177.2263766751666</v>
+        <v>215.7896615658068</v>
       </c>
       <c r="AD2" t="n">
-        <v>143194.6248887639</v>
+        <v>174352.8261564854</v>
       </c>
       <c r="AE2" t="n">
-        <v>195925.2030737171</v>
+        <v>238557.2286510176</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.274259267816558e-06</v>
+        <v>5.535297748550121e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.188271604938271</v>
       </c>
       <c r="AH2" t="n">
-        <v>177226.3766751666</v>
+        <v>215789.6615658068</v>
       </c>
     </row>
     <row r="3">
@@ -1783,28 +1783,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>92.27945631698232</v>
+        <v>123.4375680761528</v>
       </c>
       <c r="AB3" t="n">
-        <v>126.2608232151332</v>
+        <v>168.8927263228854</v>
       </c>
       <c r="AC3" t="n">
-        <v>114.2106674556926</v>
+        <v>152.7738415651062</v>
       </c>
       <c r="AD3" t="n">
-        <v>92279.45631698232</v>
+        <v>123437.5680761528</v>
       </c>
       <c r="AE3" t="n">
-        <v>126260.8232151332</v>
+        <v>168892.7263228853</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.284713166489917e-06</v>
+        <v>7.243520199141257e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.729938271604938</v>
       </c>
       <c r="AH3" t="n">
-        <v>114210.6674556926</v>
+        <v>152773.8415651062</v>
       </c>
     </row>
     <row r="4">
@@ -1889,28 +1889,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>92.51501576403295</v>
+        <v>123.6731275232034</v>
       </c>
       <c r="AB4" t="n">
-        <v>126.5831260427371</v>
+        <v>169.2150291504892</v>
       </c>
       <c r="AC4" t="n">
-        <v>114.5022101537849</v>
+        <v>153.0653842631985</v>
       </c>
       <c r="AD4" t="n">
-        <v>92515.01576403296</v>
+        <v>123673.1275232034</v>
       </c>
       <c r="AE4" t="n">
-        <v>126583.1260427371</v>
+        <v>169215.0291504892</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.283242651460663e-06</v>
+        <v>7.241034220522931e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.729938271604938</v>
       </c>
       <c r="AH4" t="n">
-        <v>114502.2101537849</v>
+        <v>153065.3842631985</v>
       </c>
     </row>
   </sheetData>
@@ -2186,28 +2186,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>109.543099911934</v>
+        <v>139.6442112429218</v>
       </c>
       <c r="AB2" t="n">
-        <v>149.8817019999374</v>
+        <v>191.0673704902829</v>
       </c>
       <c r="AC2" t="n">
-        <v>135.5772027213941</v>
+        <v>172.832168815483</v>
       </c>
       <c r="AD2" t="n">
-        <v>109543.099911934</v>
+        <v>139644.2112429218</v>
       </c>
       <c r="AE2" t="n">
-        <v>149881.7019999374</v>
+        <v>191067.3704902829</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.899774647926106e-06</v>
+        <v>6.753594666488979e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.374228395061729</v>
       </c>
       <c r="AH2" t="n">
-        <v>135577.2027213941</v>
+        <v>172832.168815483</v>
       </c>
     </row>
     <row r="3">
@@ -2292,28 +2292,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>88.24255636660016</v>
+        <v>118.4289190436085</v>
       </c>
       <c r="AB3" t="n">
-        <v>120.7373586075666</v>
+        <v>162.0396717505614</v>
       </c>
       <c r="AC3" t="n">
-        <v>109.2143545580391</v>
+        <v>146.5748329028402</v>
       </c>
       <c r="AD3" t="n">
-        <v>88242.55636660015</v>
+        <v>118428.9190436085</v>
       </c>
       <c r="AE3" t="n">
-        <v>120737.3586075666</v>
+        <v>162039.6717505614</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.394499473002938e-06</v>
+        <v>7.610354669735688e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.768518518518518</v>
       </c>
       <c r="AH3" t="n">
-        <v>109214.3545580391</v>
+        <v>146574.8329028402</v>
       </c>
     </row>
   </sheetData>
@@ -2589,28 +2589,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>90.45520619105532</v>
+        <v>117.6307108286089</v>
       </c>
       <c r="AB2" t="n">
-        <v>123.7648037126056</v>
+        <v>160.9475280563383</v>
       </c>
       <c r="AC2" t="n">
-        <v>111.9528645513</v>
+        <v>145.5869218699601</v>
       </c>
       <c r="AD2" t="n">
-        <v>90455.20619105533</v>
+        <v>117630.7108286089</v>
       </c>
       <c r="AE2" t="n">
-        <v>123764.8037126056</v>
+        <v>160947.5280563383</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.318964762434929e-06</v>
+        <v>8.17241072734284e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>111952.8645513</v>
+        <v>145586.9218699601</v>
       </c>
     </row>
   </sheetData>
@@ -2886,28 +2886,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>92.36664453986234</v>
+        <v>111.359995606358</v>
       </c>
       <c r="AB2" t="n">
-        <v>126.3801179881505</v>
+        <v>152.367658844828</v>
       </c>
       <c r="AC2" t="n">
-        <v>114.3185769030044</v>
+        <v>137.8259033340716</v>
       </c>
       <c r="AD2" t="n">
-        <v>92366.64453986233</v>
+        <v>111359.995606358</v>
       </c>
       <c r="AE2" t="n">
-        <v>126380.1179881505</v>
+        <v>152367.658844828</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.442390040974963e-06</v>
+        <v>8.093069879576233e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.038580246913581</v>
       </c>
       <c r="AH2" t="n">
-        <v>114318.5769030044</v>
+        <v>137825.9033340716</v>
       </c>
     </row>
   </sheetData>
@@ -3183,28 +3183,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>89.83611212793554</v>
+        <v>116.2440620291372</v>
       </c>
       <c r="AB2" t="n">
-        <v>122.9177319029431</v>
+        <v>159.0502539942745</v>
       </c>
       <c r="AC2" t="n">
-        <v>111.1866360862787</v>
+        <v>143.8707209815382</v>
       </c>
       <c r="AD2" t="n">
-        <v>89836.11212793554</v>
+        <v>116244.0620291372</v>
       </c>
       <c r="AE2" t="n">
-        <v>122917.7319029431</v>
+        <v>159050.2539942745</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.112930461063537e-06</v>
+        <v>8.060018515566485e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.906635802469136</v>
       </c>
       <c r="AH2" t="n">
-        <v>111186.6360862787</v>
+        <v>143870.7209815382</v>
       </c>
     </row>
   </sheetData>
@@ -3480,28 +3480,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>114.500259549799</v>
+        <v>145.0273790198468</v>
       </c>
       <c r="AB2" t="n">
-        <v>156.6643065109093</v>
+        <v>198.4328581312692</v>
       </c>
       <c r="AC2" t="n">
-        <v>141.7124849772863</v>
+        <v>179.4947046535427</v>
       </c>
       <c r="AD2" t="n">
-        <v>114500.259549799</v>
+        <v>145027.3790198468</v>
       </c>
       <c r="AE2" t="n">
-        <v>156664.3065109093</v>
+        <v>198432.8581312692</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.744622853695798e-06</v>
+        <v>6.44255324816969e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.547839506172839</v>
       </c>
       <c r="AH2" t="n">
-        <v>141712.4849772863</v>
+        <v>179494.7046535427</v>
       </c>
     </row>
     <row r="3">
@@ -3586,28 +3586,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>89.12618082915387</v>
+        <v>119.5679594446301</v>
       </c>
       <c r="AB3" t="n">
-        <v>121.946372579992</v>
+        <v>163.5981570781543</v>
       </c>
       <c r="AC3" t="n">
-        <v>110.3079819337984</v>
+        <v>147.984578578116</v>
       </c>
       <c r="AD3" t="n">
-        <v>89126.18082915386</v>
+        <v>119567.9594446301</v>
       </c>
       <c r="AE3" t="n">
-        <v>121946.372579992</v>
+        <v>163598.1570781543</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.373707001887457e-06</v>
+        <v>7.524880702937044e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.749228395061729</v>
       </c>
       <c r="AH3" t="n">
-        <v>110307.9819337984</v>
+        <v>147984.578578116</v>
       </c>
     </row>
   </sheetData>
@@ -3883,28 +3883,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>99.69324652936999</v>
+        <v>125.4604216321129</v>
       </c>
       <c r="AB2" t="n">
-        <v>136.4046980570575</v>
+        <v>171.6604838001491</v>
       </c>
       <c r="AC2" t="n">
-        <v>123.3864251197245</v>
+        <v>155.2774481533128</v>
       </c>
       <c r="AD2" t="n">
-        <v>99693.24652936999</v>
+        <v>125460.4216321129</v>
       </c>
       <c r="AE2" t="n">
-        <v>136404.6980570575</v>
+        <v>171660.4838001491</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.887695611465842e-06</v>
+        <v>7.793509348611118e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.392746913580247</v>
       </c>
       <c r="AH2" t="n">
-        <v>123386.4251197245</v>
+        <v>155277.4481533128</v>
       </c>
     </row>
   </sheetData>
@@ -4180,28 +4180,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>86.62227806726864</v>
+        <v>115.9796924456415</v>
       </c>
       <c r="AB2" t="n">
-        <v>118.5204223567887</v>
+        <v>158.688531866973</v>
       </c>
       <c r="AC2" t="n">
-        <v>107.2089995915452</v>
+        <v>143.5435211063861</v>
       </c>
       <c r="AD2" t="n">
-        <v>86622.27806726863</v>
+        <v>115979.6924456415</v>
       </c>
       <c r="AE2" t="n">
-        <v>118520.4223567887</v>
+        <v>158688.531866973</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.369619217608471e-06</v>
+        <v>7.738920327242283e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.94212962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>107208.9995915452</v>
+        <v>143543.5211063861</v>
       </c>
     </row>
     <row r="3">
@@ -4286,28 +4286,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>85.26012799133055</v>
+        <v>114.6175423697034</v>
       </c>
       <c r="AB3" t="n">
-        <v>116.6566685290711</v>
+        <v>156.8247780392553</v>
       </c>
       <c r="AC3" t="n">
-        <v>105.5231198133494</v>
+        <v>141.8576413281902</v>
       </c>
       <c r="AD3" t="n">
-        <v>85260.12799133055</v>
+        <v>114617.5423697034</v>
       </c>
       <c r="AE3" t="n">
-        <v>116656.6685290711</v>
+        <v>156824.7780392553</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.454031425598961e-06</v>
+        <v>7.888420620002929e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.849537037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>105523.1198133494</v>
+        <v>141857.6413281902</v>
       </c>
     </row>
   </sheetData>
@@ -4583,28 +4583,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>104.308121433606</v>
+        <v>124.3125943298081</v>
       </c>
       <c r="AB2" t="n">
-        <v>142.7189734949418</v>
+        <v>170.0899758465698</v>
       </c>
       <c r="AC2" t="n">
-        <v>129.0980749719604</v>
+        <v>153.8568272746008</v>
       </c>
       <c r="AD2" t="n">
-        <v>104308.121433606</v>
+        <v>124312.5943298081</v>
       </c>
       <c r="AE2" t="n">
-        <v>142718.9734949418</v>
+        <v>170089.9758465698</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.082211947769127e-06</v>
+        <v>7.119021181410057e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.185185185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>129098.0749719605</v>
+        <v>153856.8272746008</v>
       </c>
     </row>
     <row r="3">
@@ -4689,28 +4689,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>87.24018997942181</v>
+        <v>117.1614242063267</v>
       </c>
       <c r="AB3" t="n">
-        <v>119.3658766953459</v>
+        <v>160.3054293962676</v>
       </c>
       <c r="AC3" t="n">
-        <v>107.9737649546333</v>
+        <v>145.0061042048152</v>
       </c>
       <c r="AD3" t="n">
-        <v>87240.18997942182</v>
+        <v>117161.4242063267</v>
       </c>
       <c r="AE3" t="n">
-        <v>119365.8766953459</v>
+        <v>160305.4293962676</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.415618276187239e-06</v>
+        <v>7.700452705395919e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.791666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>107973.7649546333</v>
+        <v>145006.1042048152</v>
       </c>
     </row>
   </sheetData>
@@ -4986,28 +4986,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>126.5585339994124</v>
+        <v>167.737553585666</v>
       </c>
       <c r="AB2" t="n">
-        <v>173.1629695863861</v>
+        <v>229.5059208743986</v>
       </c>
       <c r="AC2" t="n">
-        <v>156.6365388048638</v>
+        <v>207.6021978997952</v>
       </c>
       <c r="AD2" t="n">
-        <v>126558.5339994124</v>
+        <v>167737.553585666</v>
       </c>
       <c r="AE2" t="n">
-        <v>173162.9695863861</v>
+        <v>229505.9208743986</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.415362706465491e-06</v>
+        <v>5.805890243118984e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.979938271604938</v>
       </c>
       <c r="AH2" t="n">
-        <v>156636.5388048638</v>
+        <v>207602.1978997952</v>
       </c>
     </row>
     <row r="3">
@@ -5092,28 +5092,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>91.42696599511014</v>
+        <v>122.3539011120861</v>
       </c>
       <c r="AB3" t="n">
-        <v>125.0944083475296</v>
+        <v>167.4100053746378</v>
       </c>
       <c r="AC3" t="n">
-        <v>113.1555735859791</v>
+        <v>151.432629423147</v>
       </c>
       <c r="AD3" t="n">
-        <v>91426.96599511013</v>
+        <v>122353.9011120862</v>
       </c>
       <c r="AE3" t="n">
-        <v>125094.4083475296</v>
+        <v>167410.0053746378</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.316688973442388e-06</v>
+        <v>7.338085160338648e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.729938271604938</v>
       </c>
       <c r="AH3" t="n">
-        <v>113155.5735859791</v>
+        <v>151432.629423147</v>
       </c>
     </row>
     <row r="4">
@@ -5198,28 +5198,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>91.63286390657434</v>
+        <v>122.5597990235504</v>
       </c>
       <c r="AB4" t="n">
-        <v>125.3761269535696</v>
+        <v>167.6917239806778</v>
       </c>
       <c r="AC4" t="n">
-        <v>113.4104053636533</v>
+        <v>151.6874612008212</v>
       </c>
       <c r="AD4" t="n">
-        <v>91632.86390657435</v>
+        <v>122559.7990235504</v>
       </c>
       <c r="AE4" t="n">
-        <v>125376.1269535696</v>
+        <v>167691.7239806778</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.316212529391948e-06</v>
+        <v>7.337275237029887e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.729938271604938</v>
       </c>
       <c r="AH4" t="n">
-        <v>113410.4053636533</v>
+        <v>151687.4612008212</v>
       </c>
     </row>
   </sheetData>
@@ -5495,28 +5495,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>83.41207108742321</v>
+        <v>112.1511693163132</v>
       </c>
       <c r="AB2" t="n">
-        <v>114.1280755426298</v>
+        <v>153.4501776189088</v>
       </c>
       <c r="AC2" t="n">
-        <v>103.2358521926307</v>
+        <v>138.805108035679</v>
       </c>
       <c r="AD2" t="n">
-        <v>83412.07108742322</v>
+        <v>112151.1693163132</v>
       </c>
       <c r="AE2" t="n">
-        <v>114128.0755426298</v>
+        <v>153450.1776189088</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.46324861431975e-06</v>
+        <v>8.048293434513821e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.949845679012346</v>
       </c>
       <c r="AH2" t="n">
-        <v>103235.8521926307</v>
+        <v>138805.108035679</v>
       </c>
     </row>
   </sheetData>
@@ -5792,28 +5792,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>90.84342491167588</v>
+        <v>109.3469554191792</v>
       </c>
       <c r="AB2" t="n">
-        <v>124.2959816931596</v>
+        <v>149.6133284516661</v>
       </c>
       <c r="AC2" t="n">
-        <v>112.4333476509031</v>
+        <v>135.3344423679051</v>
       </c>
       <c r="AD2" t="n">
-        <v>90843.42491167589</v>
+        <v>109346.9554191792</v>
       </c>
       <c r="AE2" t="n">
-        <v>124295.9816931596</v>
+        <v>149613.328451666</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.388283794890945e-06</v>
+        <v>8.187134878219667e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.243055555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>112433.3476509031</v>
+        <v>135334.4423679051</v>
       </c>
     </row>
   </sheetData>
@@ -9390,28 +9390,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>89.81071997082444</v>
+        <v>116.7111879103022</v>
       </c>
       <c r="AB2" t="n">
-        <v>122.8829892333608</v>
+        <v>159.6893962330236</v>
       </c>
       <c r="AC2" t="n">
-        <v>111.1552092083197</v>
+        <v>144.448864382063</v>
       </c>
       <c r="AD2" t="n">
-        <v>89810.71997082443</v>
+        <v>116711.1879103022</v>
       </c>
       <c r="AE2" t="n">
-        <v>122882.9892333608</v>
+        <v>159689.3962330236</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.248192654117915e-06</v>
+        <v>8.169432012178807e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.60570987654321</v>
       </c>
       <c r="AH2" t="n">
-        <v>111155.2092083197</v>
+        <v>144448.864382063</v>
       </c>
     </row>
   </sheetData>
@@ -9687,28 +9687,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>110.6107286785751</v>
+        <v>135.8170184374337</v>
       </c>
       <c r="AB2" t="n">
-        <v>151.3424787789119</v>
+        <v>185.8308364499865</v>
       </c>
       <c r="AC2" t="n">
-        <v>136.8985650147969</v>
+        <v>168.0954022344691</v>
       </c>
       <c r="AD2" t="n">
-        <v>110610.7286785751</v>
+        <v>135817.0184374337</v>
       </c>
       <c r="AE2" t="n">
-        <v>151342.4787789119</v>
+        <v>185830.8364499865</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.529624893715612e-06</v>
+        <v>7.280201910442862e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.241512345679013</v>
       </c>
       <c r="AH2" t="n">
-        <v>136898.5650147969</v>
+        <v>168095.4022344691</v>
       </c>
     </row>
   </sheetData>
@@ -9984,28 +9984,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>99.94226454781531</v>
+        <v>119.7628059967409</v>
       </c>
       <c r="AB2" t="n">
-        <v>136.7454154957938</v>
+        <v>163.8647547267754</v>
       </c>
       <c r="AC2" t="n">
-        <v>123.6946249643079</v>
+        <v>148.2257325213249</v>
       </c>
       <c r="AD2" t="n">
-        <v>99942.26454781531</v>
+        <v>119762.8059967409</v>
       </c>
       <c r="AE2" t="n">
-        <v>136745.4154957938</v>
+        <v>163864.7547267754</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.244939781508231e-06</v>
+        <v>7.458191742677485e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.034722222222223</v>
       </c>
       <c r="AH2" t="n">
-        <v>123694.6249643079</v>
+        <v>148225.7325213249</v>
       </c>
     </row>
     <row r="3">
@@ -10090,28 +10090,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>86.7577141338529</v>
+        <v>116.403051189843</v>
       </c>
       <c r="AB3" t="n">
-        <v>118.7057319581068</v>
+        <v>159.2677899780589</v>
       </c>
       <c r="AC3" t="n">
-        <v>107.3766235045972</v>
+        <v>144.0674956363439</v>
       </c>
       <c r="AD3" t="n">
-        <v>86757.7141338529</v>
+        <v>116403.051189843</v>
       </c>
       <c r="AE3" t="n">
-        <v>118705.7319581068</v>
+        <v>159267.789978059</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.411839205538144e-06</v>
+        <v>7.751427446886994e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.84567901234568</v>
       </c>
       <c r="AH3" t="n">
-        <v>107376.6235045972</v>
+        <v>144067.495636344</v>
       </c>
     </row>
   </sheetData>
@@ -10387,28 +10387,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>120.6343180528377</v>
+        <v>151.408038370084</v>
       </c>
       <c r="AB2" t="n">
-        <v>165.0571959703248</v>
+        <v>207.163157749083</v>
       </c>
       <c r="AC2" t="n">
-        <v>149.3043688461922</v>
+        <v>187.3917967288876</v>
       </c>
       <c r="AD2" t="n">
-        <v>120634.3180528377</v>
+        <v>151408.038370084</v>
       </c>
       <c r="AE2" t="n">
-        <v>165057.1959703248</v>
+        <v>207163.157749083</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.566755262445524e-06</v>
+        <v>6.098754011031158e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.775462962962964</v>
       </c>
       <c r="AH2" t="n">
-        <v>149304.3688461922</v>
+        <v>187391.7967288876</v>
       </c>
     </row>
     <row r="3">
@@ -10493,28 +10493,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>90.45574735595237</v>
+        <v>121.144126818627</v>
       </c>
       <c r="AB3" t="n">
-        <v>123.7655441582922</v>
+        <v>165.7547388148527</v>
       </c>
       <c r="AC3" t="n">
-        <v>111.9535343298895</v>
+        <v>149.9353391806461</v>
       </c>
       <c r="AD3" t="n">
-        <v>90455.74735595236</v>
+        <v>121144.126818627</v>
       </c>
       <c r="AE3" t="n">
-        <v>123765.5441582923</v>
+        <v>165754.7388148528</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.335780151192196e-06</v>
+        <v>7.41370086881215e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.749228395061729</v>
       </c>
       <c r="AH3" t="n">
-        <v>111953.5343298895</v>
+        <v>149935.3391806461</v>
       </c>
     </row>
   </sheetData>
@@ -10790,28 +10790,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>133.2197099185458</v>
+        <v>165.7715132940855</v>
       </c>
       <c r="AB2" t="n">
-        <v>182.2770843492811</v>
+        <v>226.8158978118832</v>
       </c>
       <c r="AC2" t="n">
-        <v>164.8808152465315</v>
+        <v>205.1689068628943</v>
       </c>
       <c r="AD2" t="n">
-        <v>133219.7099185458</v>
+        <v>165771.5132940855</v>
       </c>
       <c r="AE2" t="n">
-        <v>182277.0843492811</v>
+        <v>226815.8978118832</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.919736208871627e-06</v>
+        <v>6.258339498259562e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.0625</v>
       </c>
       <c r="AH2" t="n">
-        <v>164880.8152465314</v>
+        <v>205168.9068628943</v>
       </c>
     </row>
   </sheetData>
@@ -11087,28 +11087,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>91.62165121066492</v>
+        <v>110.3782286693745</v>
       </c>
       <c r="AB2" t="n">
-        <v>125.360785248357</v>
+        <v>151.0243620091474</v>
       </c>
       <c r="AC2" t="n">
-        <v>113.396527849254</v>
+        <v>136.6108088630589</v>
       </c>
       <c r="AD2" t="n">
-        <v>91621.65121066492</v>
+        <v>110378.2286693745</v>
       </c>
       <c r="AE2" t="n">
-        <v>125360.785248357</v>
+        <v>151024.3620091474</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.423378567503268e-06</v>
+        <v>8.149776587849865e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.127314814814814</v>
       </c>
       <c r="AH2" t="n">
-        <v>113396.527849254</v>
+        <v>136610.8088630589</v>
       </c>
     </row>
   </sheetData>
@@ -11384,28 +11384,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>84.62240215506225</v>
+        <v>113.6783540231973</v>
       </c>
       <c r="AB2" t="n">
-        <v>115.7841039054109</v>
+        <v>155.5397391095008</v>
       </c>
       <c r="AC2" t="n">
-        <v>104.7338315327189</v>
+        <v>140.6952447103276</v>
       </c>
       <c r="AD2" t="n">
-        <v>84622.40215506224</v>
+        <v>113678.3540231973</v>
       </c>
       <c r="AE2" t="n">
-        <v>115784.1039054109</v>
+        <v>155539.7391095008</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.435357916617553e-06</v>
+        <v>7.923443233242772e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.922839506172839</v>
       </c>
       <c r="AH2" t="n">
-        <v>104733.8315327189</v>
+        <v>140695.2447103276</v>
       </c>
     </row>
     <row r="3">
@@ -11490,28 +11490,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>84.53128637495806</v>
+        <v>113.5872382430932</v>
       </c>
       <c r="AB3" t="n">
-        <v>115.6594352753279</v>
+        <v>155.4150704794178</v>
       </c>
       <c r="AC3" t="n">
-        <v>104.6210611017175</v>
+        <v>140.5824742793262</v>
       </c>
       <c r="AD3" t="n">
-        <v>84531.28637495806</v>
+        <v>113587.2382430932</v>
       </c>
       <c r="AE3" t="n">
-        <v>115659.4352753279</v>
+        <v>155415.0704794178</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.452790764241027e-06</v>
+        <v>7.954585743302862e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.90354938271605</v>
       </c>
       <c r="AH3" t="n">
-        <v>104621.0611017175</v>
+        <v>140582.4742793262</v>
       </c>
     </row>
   </sheetData>
